--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3855253.979675326</v>
+        <v>3853001.899964117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>169.676867679127</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>113.6883373826024</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.1793357460773</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>15.07397285531824</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.2882635917094</v>
       </c>
       <c r="F5" t="n">
-        <v>225.374443436439</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>53.1992054069342</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727819</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>47.00345886335849</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.7115619691728</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>136.2892803597723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>45.66054613217701</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.10998325717173</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999782</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328342</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1053.23793938793</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>694.9722407811798</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>694.9722407811798</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392464</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4398,13 +4398,13 @@
         <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1720.382428707927</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1431.27956183357</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1431.27956183357</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1141.86239179661</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>913.8728408985925</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1734.047335491682</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1365.08481855127</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1006.81911994452</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E5" t="n">
-        <v>1006.81911994452</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4601,16 +4601,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2510.786507531615</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2120.647175555804</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.7915515140957</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>363.7915515140957</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>363.7915515140957</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>363.7915515140957</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>363.7915515140957</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140957</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278973</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211468</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0224038229026</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,19 +5042,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.0424953278208</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.251440075317</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.6909601580605</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,28 +5419,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277359</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277359</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>363.7369613277359</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773688</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>117.1600804794585</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033211</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.73700564187229</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>119.8635921600918</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4141550350971</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864963</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>635297.7181999517</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.934697756</v>
@@ -26326,34 +26326,34 @@
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.08828678125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="G4" t="n">
-        <v>10557.0882867812</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.0882867812</v>
-      </c>
       <c r="I4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678126</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678122</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678127</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678127</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725907.0837294428</v>
+        <v>-725907.0837294429</v>
       </c>
       <c r="C6" t="n">
         <v>602837.6619981501</v>
       </c>
       <c r="D6" t="n">
-        <v>602837.6619981498</v>
+        <v>602837.6619981499</v>
       </c>
       <c r="E6" t="n">
-        <v>349875.8547797124</v>
+        <v>349841.116854277</v>
       </c>
       <c r="F6" t="n">
-        <v>675288.3165870674</v>
+        <v>675253.5786616318</v>
       </c>
       <c r="G6" t="n">
-        <v>675288.3165870673</v>
+        <v>675253.5786616314</v>
       </c>
       <c r="H6" t="n">
-        <v>675288.3165870674</v>
+        <v>675253.5786616311</v>
       </c>
       <c r="I6" t="n">
-        <v>675288.3165870674</v>
+        <v>675253.5786616323</v>
       </c>
       <c r="J6" t="n">
-        <v>457757.1141897903</v>
+        <v>457722.3762643546</v>
       </c>
       <c r="K6" t="n">
-        <v>675288.3165870677</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="L6" t="n">
-        <v>675288.3165870674</v>
+        <v>675253.5786616318</v>
       </c>
       <c r="M6" t="n">
-        <v>590233.2886515557</v>
+        <v>590198.5507261199</v>
       </c>
       <c r="N6" t="n">
-        <v>675288.3165870677</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="O6" t="n">
-        <v>675288.3165870674</v>
+        <v>675253.578661632</v>
       </c>
       <c r="P6" t="n">
-        <v>675288.3165870676</v>
+        <v>675253.578661632</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>237.1991780625845</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>272.5496012734511</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.84647251295092</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>204.474976420851</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6421064805524</v>
       </c>
       <c r="F5" t="n">
-        <v>181.5016023052724</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>112.826602852094</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548166</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>359.8725868783529</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.12041821276452</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908111</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542653</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.9649970098534</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463666</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709319</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
